--- a/excel/dosyalar/gu_reports_summary.xlsx
+++ b/excel/dosyalar/gu_reports_summary.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -550,14 +550,14 @@
     <row r="3" ht="22.8" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>35149.22</v>
+        <v>40655.5583</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>35149.22</v>
+        <v>47855.5583</v>
       </c>
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="4" t="inlineStr">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="F3" s="4" t="n">
-        <v>152248.830329</v>
+        <v>55619.825</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>183718.830329</v>
+        <v>77619.825</v>
       </c>
       <c r="H3" s="1" t="n"/>
       <c r="I3" s="4" t="inlineStr">
@@ -578,23 +578,23 @@
         </is>
       </c>
       <c r="J3" s="4" t="n">
-        <v>39387.728287</v>
+        <v>12896.84</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>42477.728287</v>
+        <v>12896.84</v>
       </c>
     </row>
     <row r="4" ht="22.8" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>April</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18029.20392</v>
+        <v>26838.82</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17482.80392</v>
+        <v>28838.82</v>
       </c>
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="4" t="inlineStr">
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9926.379199999999</v>
+        <v>31565.47</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9391.379199999999</v>
+        <v>35215.47</v>
       </c>
       <c r="H4" s="1" t="n"/>
       <c r="I4" s="4" t="inlineStr">
@@ -615,23 +615,23 @@
         </is>
       </c>
       <c r="J4" s="4" t="n">
-        <v>58097.84</v>
+        <v>22819.05</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>73448.56999999999</v>
+        <v>22819.05</v>
       </c>
     </row>
     <row r="5" ht="22.8" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>86104.08716</v>
+        <v>6996.135</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>95104.08716</v>
+        <v>6996.135</v>
       </c>
       <c r="D5" s="1" t="n"/>
       <c r="E5" s="4" t="inlineStr">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="F5" s="4" t="n">
-        <v>78857.929087</v>
+        <v>832.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>87289.12908699999</v>
+        <v>832.23</v>
       </c>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="4" t="inlineStr">
@@ -652,23 +652,23 @@
         </is>
       </c>
       <c r="J5" s="4" t="n">
-        <v>65661.91</v>
+        <v>39888.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>77211.91</v>
+        <v>52588.84</v>
       </c>
     </row>
     <row r="6" ht="22.8" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>June</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>46565.847836</v>
+        <v>35221.4</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>55554.737836</v>
+        <v>38821.4</v>
       </c>
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="4" t="inlineStr">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="F6" s="4" t="n">
-        <v>55530.36712</v>
+        <v>102222.6675</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>58211.63712</v>
+        <v>108077.5675</v>
       </c>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="4" t="inlineStr">
@@ -689,23 +689,23 @@
         </is>
       </c>
       <c r="J6" s="4" t="n">
-        <v>39459.6110685</v>
+        <v>88515.62</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>41619.5510685</v>
+        <v>103790.62</v>
       </c>
     </row>
     <row r="7" ht="22.8" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>July</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>116228.01176</v>
+        <v>66884.8</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>134046.62176</v>
+        <v>74399.8</v>
       </c>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="4" t="inlineStr">
@@ -714,35 +714,35 @@
         </is>
       </c>
       <c r="F7" s="4" t="n">
-        <v>100568.539338</v>
+        <v>31640.58</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>102805.959338</v>
+        <v>32928.03</v>
       </c>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>May</t>
         </is>
       </c>
       <c r="J7" s="4" t="n">
-        <v>43153.0243</v>
+        <v>41720.04</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>52564.29429999999</v>
+        <v>53170.04</v>
       </c>
     </row>
     <row r="8" ht="22.8" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>August</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>30.09308065</v>
+        <v>38160.7498</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>63.71308064999999</v>
+        <v>42160.7498</v>
       </c>
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="4" t="inlineStr">
@@ -751,28 +751,36 @@
         </is>
       </c>
       <c r="F8" s="4" t="n">
-        <v>175306.052101</v>
+        <v>40433.1</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>194850.272101</v>
+        <v>44198.1</v>
       </c>
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11481.48</v>
+        <v>99834.8</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17781.48</v>
+        <v>118014.8</v>
       </c>
     </row>
     <row r="9" ht="22.8" customHeight="1">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>94419.59600000001</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>98019.59600000001</v>
+      </c>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -780,28 +788,36 @@
         </is>
       </c>
       <c r="F9" s="4" t="n">
-        <v>58715.04</v>
+        <v>16025.56</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>67215.04000000001</v>
+        <v>16025.56</v>
       </c>
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>July</t>
         </is>
       </c>
       <c r="J9" s="4" t="n">
-        <v>72976.099667</v>
+        <v>34156.16356</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>75969.599667</v>
+        <v>50709.10356</v>
       </c>
     </row>
     <row r="10" ht="22.8" customHeight="1">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>8914.5</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>9761.969999999999</v>
+      </c>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -809,22 +825,22 @@
         </is>
       </c>
       <c r="F10" s="4" t="n">
-        <v>19535.55</v>
+        <v>26117.64</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>19135.55</v>
+        <v>29767.64</v>
       </c>
       <c r="H10" s="1" t="n"/>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>August</t>
         </is>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3919.5732</v>
+        <v>53782.12</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>6756.9132</v>
+        <v>61132.12</v>
       </c>
     </row>
     <row r="11" ht="22.8" customHeight="1">
@@ -838,22 +854,22 @@
         </is>
       </c>
       <c r="F11" s="4" t="n">
-        <v>93323.332446</v>
+        <v>50481.77</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>102473.332446</v>
+        <v>61281.77</v>
       </c>
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>September</t>
         </is>
       </c>
       <c r="J11" s="4" t="n">
-        <v>949.992</v>
+        <v>36840.71</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>2390.792</v>
+        <v>40590.71</v>
       </c>
     </row>
     <row r="12" ht="22.8" customHeight="1">
@@ -867,15 +883,23 @@
         </is>
       </c>
       <c r="F12" s="4" t="n">
-        <v>30554.159982</v>
+        <v>8950</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>30554.159982</v>
+        <v>12550</v>
       </c>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="4" t="n"/>
-      <c r="J12" s="4" t="n"/>
-      <c r="K12" s="4" t="n"/>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>70937.64966539999</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>92937.89966539999</v>
+      </c>
     </row>
     <row r="13" ht="22.8" customHeight="1">
       <c r="A13" s="4" t="n"/>
@@ -888,15 +912,23 @@
         </is>
       </c>
       <c r="F13" s="4" t="n">
-        <v>18322.4005</v>
+        <v>58338.88</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>18988.9705</v>
+        <v>65538.88</v>
       </c>
       <c r="H13" s="1" t="n"/>
-      <c r="I13" s="4" t="n"/>
-      <c r="J13" s="4" t="n"/>
-      <c r="K13" s="4" t="n"/>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>19683.98</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>23283.98</v>
+      </c>
     </row>
     <row r="14" ht="22.8" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
@@ -905,22 +937,22 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>302106.46375665</v>
+        <v>318091.5591</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>337401.18375665</v>
+        <v>346854.0291</v>
       </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>Toplam</t>
         </is>
       </c>
       <c r="F14" s="6" t="n">
-        <v>809816.440103</v>
+        <v>422227.7225</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>891562.1201030001</v>
+        <v>484035.0725</v>
       </c>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="3" t="inlineStr">
@@ -929,10 +961,10 @@
         </is>
       </c>
       <c r="J14" s="6" t="n">
-        <v>335087.2585225</v>
+        <v>521075.8132254</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>390220.8385225</v>
+        <v>631934.0032254</v>
       </c>
     </row>
     <row r="16" ht="22.8" customHeight="1">
@@ -1006,349 +1038,125 @@
       </c>
     </row>
     <row r="18" ht="22.8" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>68437.55</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>71187.55</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>181611.100329</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>214924.100329</v>
-      </c>
-      <c r="I18" s="4" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>121910.398287</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>131200.398287</v>
-      </c>
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="4" t="n"/>
+      <c r="I18" s="4" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="4" t="n"/>
     </row>
     <row r="19" ht="22.8" customHeight="1">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>68082.71788</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>75036.31788</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>42062.5042</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <v>43477.5042</v>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="n">
-        <v>85084.32000000001</v>
-      </c>
-      <c r="K19" s="4" t="n">
-        <v>104035.05</v>
-      </c>
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
+      <c r="G19" s="4" t="n"/>
+      <c r="I19" s="4" t="n"/>
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="4" t="n"/>
     </row>
     <row r="20" ht="22.8" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>120163.50716</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>131863.50716</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>109283.349087</v>
-      </c>
-      <c r="G20" s="4" t="n">
-        <v>119664.549087</v>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="n">
-        <v>65661.91</v>
-      </c>
-      <c r="K20" s="4" t="n">
-        <v>77211.91</v>
-      </c>
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="n"/>
+      <c r="E20" s="4" t="n"/>
+      <c r="F20" s="4" t="n"/>
+      <c r="G20" s="4" t="n"/>
+      <c r="I20" s="4" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="4" t="n"/>
     </row>
     <row r="21" ht="22.8" customHeight="1">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>46565.847836</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>55554.737836</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v>159844.90912</v>
-      </c>
-      <c r="G21" s="4" t="n">
-        <v>169056.07912</v>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v>53142.4110685</v>
-      </c>
-      <c r="K21" s="4" t="n">
-        <v>55638.3510685</v>
-      </c>
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="E21" s="4" t="n"/>
+      <c r="F21" s="4" t="n"/>
+      <c r="G21" s="4" t="n"/>
+      <c r="I21" s="4" t="n"/>
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="4" t="n"/>
     </row>
     <row r="22" ht="22.8" customHeight="1">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="n">
-        <v>116228.01176</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>134046.62176</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="n">
-        <v>182856.893938</v>
-      </c>
-      <c r="G22" s="4" t="n">
-        <v>195731.763938</v>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v>102625.2743</v>
-      </c>
-      <c r="K22" s="4" t="n">
-        <v>117736.5443</v>
-      </c>
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
+      <c r="E22" s="4" t="n"/>
+      <c r="F22" s="4" t="n"/>
+      <c r="G22" s="4" t="n"/>
+      <c r="I22" s="4" t="n"/>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="4" t="n"/>
     </row>
     <row r="23" ht="22.8" customHeight="1">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="n">
-        <v>80837.35308065001</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>92720.97308065</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>210192.401101</v>
-      </c>
-      <c r="G23" s="4" t="n">
-        <v>233601.621101</v>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="n">
-        <v>26462.23</v>
-      </c>
-      <c r="K23" s="4" t="n">
-        <v>34187.23</v>
-      </c>
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+      <c r="E23" s="4" t="n"/>
+      <c r="F23" s="4" t="n"/>
+      <c r="G23" s="4" t="n"/>
+      <c r="I23" s="4" t="n"/>
+      <c r="J23" s="4" t="n"/>
+      <c r="K23" s="4" t="n"/>
     </row>
     <row r="24" ht="22.8" customHeight="1">
       <c r="A24" s="4" t="n"/>
       <c r="B24" s="4" t="n"/>
       <c r="C24" s="4" t="n"/>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="n">
-        <v>72967.44</v>
-      </c>
-      <c r="G24" s="4" t="n">
-        <v>82407.44</v>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="n">
-        <v>72976.099667</v>
-      </c>
-      <c r="K24" s="4" t="n">
-        <v>75969.599667</v>
-      </c>
+      <c r="E24" s="4" t="n"/>
+      <c r="F24" s="4" t="n"/>
+      <c r="G24" s="4" t="n"/>
+      <c r="I24" s="4" t="n"/>
+      <c r="J24" s="4" t="n"/>
+      <c r="K24" s="4" t="n"/>
     </row>
     <row r="25" ht="22.8" customHeight="1">
       <c r="A25" s="4" t="n"/>
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="4" t="n"/>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="n">
-        <v>19535.55</v>
-      </c>
-      <c r="G25" s="4" t="n">
-        <v>19135.55</v>
-      </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="n">
-        <v>29605.47</v>
-      </c>
-      <c r="K25" s="4" t="n">
-        <v>31605.47</v>
-      </c>
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="4" t="n"/>
+      <c r="I25" s="4" t="n"/>
+      <c r="J25" s="4" t="n"/>
+      <c r="K25" s="4" t="n"/>
     </row>
     <row r="26" ht="22.8" customHeight="1">
       <c r="A26" s="4" t="n"/>
       <c r="B26" s="4" t="n"/>
       <c r="C26" s="4" t="n"/>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="n">
-        <v>93323.332446</v>
-      </c>
-      <c r="G26" s="4" t="n">
-        <v>102473.332446</v>
-      </c>
-      <c r="I26" s="4" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="J26" s="4" t="n">
-        <v>3919.5732</v>
-      </c>
-      <c r="K26" s="4" t="n">
-        <v>6756.9132</v>
-      </c>
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="4" t="n"/>
+      <c r="G26" s="4" t="n"/>
+      <c r="I26" s="4" t="n"/>
+      <c r="J26" s="4" t="n"/>
+      <c r="K26" s="4" t="n"/>
     </row>
     <row r="27" ht="22.8" customHeight="1">
       <c r="A27" s="4" t="n"/>
       <c r="B27" s="4" t="n"/>
       <c r="C27" s="4" t="n"/>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="n">
-        <v>55375.889982</v>
-      </c>
-      <c r="G27" s="4" t="n">
-        <v>56575.889982</v>
-      </c>
-      <c r="I27" s="4" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="J27" s="4" t="n">
-        <v>87981.55</v>
-      </c>
-      <c r="K27" s="4" t="n">
-        <v>92098.65000000001</v>
-      </c>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="n"/>
+      <c r="G27" s="4" t="n"/>
+      <c r="I27" s="4" t="n"/>
+      <c r="J27" s="4" t="n"/>
+      <c r="K27" s="4" t="n"/>
     </row>
     <row r="28" ht="22.8" customHeight="1">
       <c r="A28" s="4" t="n"/>
       <c r="B28" s="4" t="n"/>
       <c r="C28" s="4" t="n"/>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="n">
-        <v>52980.1605</v>
-      </c>
-      <c r="G28" s="4" t="n">
-        <v>55346.7305</v>
-      </c>
-      <c r="I28" s="4" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>32014.652</v>
-      </c>
-      <c r="K28" s="4" t="n">
-        <v>34756.222</v>
-      </c>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+      <c r="G28" s="4" t="n"/>
+      <c r="I28" s="4" t="n"/>
+      <c r="J28" s="4" t="n"/>
+      <c r="K28" s="4" t="n"/>
     </row>
     <row r="29" ht="22.8" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
@@ -1357,21 +1165,21 @@
         </is>
       </c>
       <c r="B29" s="5" t="n">
-        <v>500314.98771665</v>
+        <v>0</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>560409.70771665</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>Toplam</t>
         </is>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1218921.960703</v>
+        <v>0</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1331932.990703</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
@@ -1379,20 +1187,20 @@
         </is>
       </c>
       <c r="J29" s="5" t="n">
-        <v>681383.8885224999</v>
+        <v>0</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>761196.3385224999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E1:G1"/>
     <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
